--- a/Jadwal Tanding KEJURNAS TADJIMALELA 2022 DEWASA I fix.xlsx
+++ b/Jadwal Tanding KEJURNAS TADJIMALELA 2022 DEWASA I fix.xlsx
@@ -5,18 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My work\Project\Kejurnas Taji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My work\Project\silat\kejurnas-tadjimalela2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84BB90C-373B-4016-93BA-187DD3CB4761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD857A-D28E-4380-B07C-37F13F1CD9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jadwal" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -495,7 +506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,20 +518,24 @@
       <b/>
       <sz val="16"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -543,7 +558,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,6 +574,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,29 +662,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
@@ -684,14 +701,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,11 +1033,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N117" sqref="N117"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116:I117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="0.42578125" customWidth="1"/>
@@ -1020,57 +1054,57 @@
     <col min="13" max="13" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="21">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="6" spans="1:13">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1080,481 +1114,537 @@
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="8" spans="1:13">
-      <c r="A8" s="4">
+      <c r="L6" s="19"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="G9" s="1" t="s">
+      <c r="K8" s="15"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="11" spans="1:13">
-      <c r="A11" s="4">
+      <c r="K9" s="14"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="G12" s="1" t="s">
+      <c r="K11" s="15"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="14" spans="1:13">
-      <c r="A14" s="4">
+      <c r="K12" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>3</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="G15" s="1" t="s">
+      <c r="K14" s="15"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="21"/>
+      <c r="I15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="17" spans="1:13">
-      <c r="A17" s="4">
+      <c r="K15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="H17" s="21"/>
+      <c r="I17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="G18" s="1" t="s">
+      <c r="K17" s="15"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="H18" s="21"/>
+      <c r="I18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="20" spans="1:13">
-      <c r="A20" s="4">
+      <c r="K18" s="14"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>5</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="G21" s="1" t="s">
+      <c r="K20" s="15"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="21"/>
+      <c r="I21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="23" spans="1:13">
-      <c r="A23" s="4">
+      <c r="K21" s="14"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
         <v>6</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="F23" s="21"/>
+      <c r="G23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="H23" s="21"/>
+      <c r="I23" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="G24" s="1" t="s">
+      <c r="K23" s="15"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="H24" s="21"/>
+      <c r="I24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="26" spans="1:13">
-      <c r="A26" s="4">
+      <c r="K24" s="14"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <v>7</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="F26" s="21"/>
+      <c r="G26" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="H26" s="21"/>
+      <c r="I26" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="G27" s="1" t="s">
+      <c r="K26" s="15"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="H27" s="21"/>
+      <c r="I27" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="29" spans="1:13">
-      <c r="A29" s="4">
+      <c r="K27" s="14"/>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
         <v>8</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="F29" s="21"/>
+      <c r="G29" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="H29" s="21"/>
+      <c r="I29" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="G30" s="1" t="s">
+      <c r="K29" s="15"/>
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="H30" s="21"/>
+      <c r="I30" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="32" spans="1:13">
-      <c r="A32" s="4">
+      <c r="K30" s="14"/>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
         <v>9</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="F32" s="21"/>
+      <c r="G32" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="H32" s="21"/>
+      <c r="I32" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="G33" s="1" t="s">
+      <c r="K32" s="15"/>
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="H33" s="21"/>
+      <c r="I33" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="35" spans="1:13">
-      <c r="A35" s="4">
+      <c r="K33" s="14"/>
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>10</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="F35" s="21"/>
+      <c r="G35" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="H35" s="21"/>
+      <c r="I35" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="G36" s="1" t="s">
+      <c r="K35" s="15"/>
+      <c r="M35" s="16"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="H36" s="21"/>
+      <c r="I36" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="38" spans="1:13">
-      <c r="A38" s="4">
+      <c r="K36" s="14"/>
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
         <v>11</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="F38" s="21"/>
+      <c r="G38" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="H38" s="21"/>
+      <c r="I38" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="G39" s="1" t="s">
+      <c r="K38" s="15"/>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="H39" s="21"/>
+      <c r="I39" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="K39" s="4"/>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="41" spans="1:13">
-      <c r="A41" s="4">
+      <c r="K39" s="14"/>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
         <v>12</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="F41" s="21"/>
+      <c r="G41" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="H41" s="21"/>
+      <c r="I41" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="K41" s="6"/>
-      <c r="M41" s="7"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="G42" s="1" t="s">
+      <c r="K41" s="15"/>
+      <c r="M41" s="16"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="H42" s="21"/>
+      <c r="I42" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K42" s="4"/>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="44" spans="1:13">
-      <c r="A44" s="4">
+      <c r="K42" s="14"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
         <v>13</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="F44" s="21"/>
+      <c r="G44" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="H44" s="21"/>
+      <c r="I44" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K44" s="6"/>
-      <c r="M44" s="7"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="G45" s="1" t="s">
+      <c r="K44" s="15"/>
+      <c r="M44" s="16"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="H45" s="21"/>
+      <c r="I45" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K45" s="4"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="47" spans="1:13">
-      <c r="A47" s="4">
+      <c r="K45" s="14"/>
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
         <v>14</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="F47" s="21"/>
+      <c r="G47" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="H47" s="21"/>
+      <c r="I47" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K47" s="6"/>
-      <c r="M47" s="7"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="G48" s="1" t="s">
+      <c r="K47" s="15"/>
+      <c r="M47" s="16"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="H48" s="21"/>
+      <c r="I48" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="K48" s="4"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:13" ht="2.25" customHeight="1">
+      <c r="K48" s="14"/>
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="C49" s="1"/>
       <c r="E49" s="1"/>
@@ -1563,700 +1653,788 @@
       <c r="K49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
         <v>15</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="F50" s="21"/>
+      <c r="G50" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="H50" s="21"/>
+      <c r="I50" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="K50" s="6"/>
-      <c r="M50" s="7"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="G51" s="1" t="s">
+      <c r="K50" s="15"/>
+      <c r="M50" s="16"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="H51" s="21"/>
+      <c r="I51" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K51" s="4"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="4">
+      <c r="K51" s="14"/>
+      <c r="M51" s="14"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
         <v>16</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="F52" s="21"/>
+      <c r="G52" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="H52" s="21"/>
+      <c r="I52" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="K52" s="6"/>
-      <c r="M52" s="7"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="G53" s="1" t="s">
+      <c r="K52" s="15"/>
+      <c r="M52" s="16"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="H53" s="21"/>
+      <c r="I53" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K53" s="4"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="55" spans="1:13">
-      <c r="A55" s="4">
+      <c r="K53" s="14"/>
+      <c r="M53" s="14"/>
+    </row>
+    <row r="54" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
         <v>17</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="F55" s="21"/>
+      <c r="G55" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="H55" s="21"/>
+      <c r="I55" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="K55" s="6"/>
-      <c r="M55" s="7"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="G56" s="9"/>
-      <c r="I56" s="1" t="s">
+      <c r="K55" s="15"/>
+      <c r="M55" s="16"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K56" s="4"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="58" spans="1:13">
-      <c r="A58" s="4">
+      <c r="K56" s="14"/>
+      <c r="M56" s="14"/>
+    </row>
+    <row r="57" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
         <v>18</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="F58" s="21"/>
+      <c r="G58" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="H58" s="21"/>
+      <c r="I58" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="K58" s="6"/>
-      <c r="M58" s="7"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="G59" s="1" t="s">
+      <c r="K58" s="15"/>
+      <c r="M58" s="16"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I59" s="9"/>
-      <c r="K59" s="4"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="61" spans="1:13">
-      <c r="A61" s="4">
+      <c r="H59" s="21"/>
+      <c r="I59" s="24"/>
+      <c r="K59" s="14"/>
+      <c r="M59" s="14"/>
+    </row>
+    <row r="60" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
         <v>19</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="F61" s="21"/>
+      <c r="G61" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="H61" s="21"/>
+      <c r="I61" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="K61" s="6"/>
-      <c r="M61" s="7"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="G62" s="1" t="s">
+      <c r="K61" s="15"/>
+      <c r="M61" s="16"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="I62" s="9"/>
-      <c r="K62" s="4"/>
-      <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="64" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="65" spans="1:13">
-      <c r="A65" s="4">
+      <c r="H62" s="21"/>
+      <c r="I62" s="24"/>
+      <c r="K62" s="14"/>
+      <c r="M62" s="14"/>
+    </row>
+    <row r="63" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
         <v>20</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="F65" s="21"/>
+      <c r="G65" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="H65" s="21"/>
+      <c r="I65" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K65" s="6"/>
-      <c r="M65" s="7"/>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="G66" s="9"/>
-      <c r="I66" s="1" t="s">
+      <c r="K65" s="15"/>
+      <c r="M65" s="16"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K66" s="4"/>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="68" spans="1:13">
-      <c r="A68" s="4">
+      <c r="K66" s="14"/>
+      <c r="M66" s="14"/>
+    </row>
+    <row r="67" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
         <v>21</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="F68" s="21"/>
+      <c r="G68" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I68" s="8" t="s">
+      <c r="H68" s="21"/>
+      <c r="I68" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="K68" s="6"/>
-      <c r="M68" s="7"/>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="G69" s="1" t="s">
+      <c r="K68" s="15"/>
+      <c r="M68" s="16"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I69" s="9"/>
-      <c r="K69" s="4"/>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="71" spans="1:13">
-      <c r="A71" s="4">
+      <c r="H69" s="21"/>
+      <c r="I69" s="24"/>
+      <c r="K69" s="14"/>
+      <c r="M69" s="14"/>
+    </row>
+    <row r="70" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
         <v>22</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="F71" s="21"/>
+      <c r="G71" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="H71" s="21"/>
+      <c r="I71" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="K71" s="6"/>
-      <c r="M71" s="7"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="G72" s="1" t="s">
+      <c r="K71" s="15"/>
+      <c r="M71" s="16"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="H72" s="21"/>
+      <c r="I72" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K72" s="4"/>
-      <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="74" spans="1:13">
-      <c r="A74" s="4">
+      <c r="K72" s="14"/>
+      <c r="M72" s="14"/>
+    </row>
+    <row r="73" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
         <v>23</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="F74" s="21"/>
+      <c r="G74" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="H74" s="21"/>
+      <c r="I74" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="K74" s="6"/>
-      <c r="M74" s="7"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="G75" s="1" t="s">
+      <c r="K74" s="15"/>
+      <c r="M74" s="16"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="H75" s="21"/>
+      <c r="I75" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K75" s="4"/>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="77" spans="1:13">
-      <c r="A77" s="4">
+      <c r="K75" s="14"/>
+      <c r="M75" s="14"/>
+    </row>
+    <row r="76" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
         <v>24</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="F77" s="21"/>
+      <c r="G77" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="H77" s="21"/>
+      <c r="I77" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K77" s="6"/>
-      <c r="M77" s="7"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="G78" s="1" t="s">
+      <c r="K77" s="15"/>
+      <c r="M77" s="16"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="H78" s="21"/>
+      <c r="I78" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K78" s="4"/>
-      <c r="M78" s="4"/>
-    </row>
-    <row r="79" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="80" spans="1:13">
-      <c r="A80" s="4">
+      <c r="K78" s="14"/>
+      <c r="M78" s="14"/>
+    </row>
+    <row r="79" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
         <v>25</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="F80" s="21"/>
+      <c r="G80" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="H80" s="21"/>
+      <c r="I80" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="K80" s="6"/>
-      <c r="M80" s="7"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="G81" s="1" t="s">
+      <c r="K80" s="15"/>
+      <c r="M80" s="16"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="H81" s="21"/>
+      <c r="I81" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K81" s="4"/>
-      <c r="M81" s="4"/>
-    </row>
-    <row r="82" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="83" spans="1:13">
-      <c r="A83" s="4">
+      <c r="K81" s="14"/>
+      <c r="M81" s="14"/>
+    </row>
+    <row r="82" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="14">
         <v>26</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="F83" s="21"/>
+      <c r="G83" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="H83" s="21"/>
+      <c r="I83" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="K83" s="6"/>
-      <c r="M83" s="7"/>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="G84" s="1" t="s">
+      <c r="K83" s="15"/>
+      <c r="M83" s="16"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="H84" s="21"/>
+      <c r="I84" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K84" s="4"/>
-      <c r="M84" s="4"/>
-    </row>
-    <row r="85" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="86" spans="1:13">
-      <c r="A86" s="4">
+      <c r="K84" s="14"/>
+      <c r="M84" s="14"/>
+    </row>
+    <row r="85" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="14">
         <v>27</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="F86" s="21"/>
+      <c r="G86" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="H86" s="21"/>
+      <c r="I86" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K86" s="6"/>
-      <c r="M86" s="7"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="G87" s="1" t="s">
+      <c r="K86" s="15"/>
+      <c r="M86" s="16"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="H87" s="21"/>
+      <c r="I87" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K87" s="4"/>
-      <c r="M87" s="4"/>
-    </row>
-    <row r="88" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="89" spans="1:13">
-      <c r="A89" s="4">
+      <c r="K87" s="14"/>
+      <c r="M87" s="14"/>
+    </row>
+    <row r="88" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="14">
         <v>28</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="F89" s="21"/>
+      <c r="G89" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="H89" s="21"/>
+      <c r="I89" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="K89" s="6"/>
-      <c r="M89" s="7"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="G90" s="9"/>
-      <c r="I90" s="1" t="s">
+      <c r="K89" s="15"/>
+      <c r="M89" s="16"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K90" s="4"/>
-      <c r="M90" s="4"/>
-    </row>
-    <row r="91" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="92" spans="1:13">
-      <c r="A92" s="4">
+      <c r="K90" s="14"/>
+      <c r="M90" s="14"/>
+    </row>
+    <row r="91" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
         <v>29</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="F92" s="21"/>
+      <c r="G92" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="I92" s="8" t="s">
+      <c r="H92" s="21"/>
+      <c r="I92" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="K92" s="6"/>
-      <c r="M92" s="7"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="G93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="K93" s="4"/>
-      <c r="M93" s="4"/>
-    </row>
-    <row r="94" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="95" spans="1:13">
-      <c r="A95" s="4">
+      <c r="K92" s="15"/>
+      <c r="M92" s="16"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="24"/>
+      <c r="K93" s="14"/>
+      <c r="M93" s="14"/>
+    </row>
+    <row r="94" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="14">
         <v>30</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="F95" s="21"/>
+      <c r="G95" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="I95" s="8" t="s">
+      <c r="H95" s="21"/>
+      <c r="I95" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="K95" s="6"/>
-      <c r="M95" s="7"/>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="G96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="K96" s="4"/>
-      <c r="M96" s="4"/>
-    </row>
-    <row r="97" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="98" spans="1:13">
-      <c r="A98" s="4">
+      <c r="K95" s="15"/>
+      <c r="M95" s="16"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="24"/>
+      <c r="K96" s="14"/>
+      <c r="M96" s="14"/>
+    </row>
+    <row r="97" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="14">
         <v>31</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="F98" s="21"/>
+      <c r="G98" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I98" s="8" t="s">
+      <c r="H98" s="21"/>
+      <c r="I98" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="K98" s="6"/>
-      <c r="M98" s="7"/>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="G99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="K99" s="4"/>
-      <c r="M99" s="4"/>
-    </row>
-    <row r="100" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="101" spans="1:13">
-      <c r="A101" s="4">
+      <c r="K98" s="15"/>
+      <c r="M98" s="16"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="24"/>
+      <c r="K99" s="14"/>
+      <c r="M99" s="14"/>
+    </row>
+    <row r="100" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="14">
         <v>32</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="F101" s="21"/>
+      <c r="G101" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="I101" s="8" t="s">
+      <c r="H101" s="21"/>
+      <c r="I101" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="K101" s="6"/>
-      <c r="M101" s="7"/>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="G102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="K102" s="4"/>
-      <c r="M102" s="4"/>
-    </row>
-    <row r="103" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="104" spans="1:13">
-      <c r="A104" s="4">
+      <c r="K101" s="15"/>
+      <c r="M101" s="16"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="24"/>
+      <c r="K102" s="14"/>
+      <c r="M102" s="14"/>
+    </row>
+    <row r="103" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="14">
         <v>33</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="F104" s="21"/>
+      <c r="G104" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="H104" s="21"/>
+      <c r="I104" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="K104" s="6"/>
-      <c r="M104" s="7"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="G105" s="9"/>
-      <c r="I105" s="1" t="s">
+      <c r="K104" s="15"/>
+      <c r="M104" s="16"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K105" s="4"/>
-      <c r="M105" s="4"/>
-    </row>
-    <row r="106" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="107" spans="1:13">
-      <c r="A107" s="4">
+      <c r="K105" s="14"/>
+      <c r="M105" s="14"/>
+    </row>
+    <row r="106" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="14">
         <v>34</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="F107" s="21"/>
+      <c r="G107" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I107" s="8" t="s">
+      <c r="H107" s="21"/>
+      <c r="I107" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="K107" s="6"/>
-      <c r="M107" s="7"/>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="G108" s="1" t="s">
+      <c r="K107" s="15"/>
+      <c r="M107" s="16"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I108" s="9"/>
-      <c r="K108" s="4"/>
-      <c r="M108" s="4"/>
-    </row>
-    <row r="109" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="110" spans="1:13">
-      <c r="A110" s="4">
+      <c r="H108" s="21"/>
+      <c r="I108" s="24"/>
+      <c r="K108" s="14"/>
+      <c r="M108" s="14"/>
+    </row>
+    <row r="109" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="14">
         <v>35</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G110" s="8" t="s">
+      <c r="F110" s="21"/>
+      <c r="G110" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="I110" s="8" t="s">
+      <c r="H110" s="21"/>
+      <c r="I110" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="K110" s="6"/>
-      <c r="M110" s="7"/>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="G111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="K111" s="4"/>
-      <c r="M111" s="4"/>
-    </row>
-    <row r="112" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="113" spans="1:13">
-      <c r="A113" s="4">
+      <c r="K110" s="15"/>
+      <c r="M110" s="16"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="24"/>
+      <c r="K111" s="14"/>
+      <c r="M111" s="14"/>
+    </row>
+    <row r="112" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="14">
         <v>36</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G113" s="8" t="s">
+      <c r="F113" s="21"/>
+      <c r="G113" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="I113" s="8" t="s">
+      <c r="H113" s="21"/>
+      <c r="I113" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="K113" s="6"/>
-      <c r="M113" s="7"/>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="G114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="K114" s="4"/>
-      <c r="M114" s="4"/>
-    </row>
-    <row r="115" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="116" spans="1:13">
-      <c r="A116" s="4">
+      <c r="K113" s="15"/>
+      <c r="M113" s="16"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="24"/>
+      <c r="K114" s="14"/>
+      <c r="M114" s="14"/>
+    </row>
+    <row r="115" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="14">
         <v>37</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="14" t="s">
         <v>72</v>
       </c>
       <c r="G116" s="1" t="s">
@@ -2265,62 +2443,66 @@
       <c r="I116" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K116" s="6"/>
-      <c r="M116" s="7"/>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="E117" s="4"/>
+      <c r="K116" s="15"/>
+      <c r="M116" s="16"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="E117" s="14"/>
       <c r="G117" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K117" s="4"/>
-      <c r="M117" s="4"/>
-    </row>
-    <row r="118" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="119" spans="1:13">
-      <c r="A119" s="4">
+      <c r="K117" s="14"/>
+      <c r="M117" s="14"/>
+    </row>
+    <row r="118" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="14">
         <v>38</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="F119" s="21"/>
+      <c r="G119" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="H119" s="21"/>
+      <c r="I119" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="K119" s="6"/>
-      <c r="M119" s="7"/>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="G120" s="9"/>
-      <c r="I120" s="1" t="s">
+      <c r="K119" s="15"/>
+      <c r="M119" s="16"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K120" s="4"/>
-      <c r="M120" s="4"/>
-    </row>
-    <row r="121" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="122" spans="1:13">
-      <c r="A122" s="4">
+      <c r="K120" s="14"/>
+      <c r="M120" s="14"/>
+    </row>
+    <row r="121" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="14">
         <v>39</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E122" s="14" t="s">
         <v>103</v>
       </c>
       <c r="G122" s="1" t="s">
@@ -2329,30 +2511,30 @@
       <c r="I122" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K122" s="6"/>
-      <c r="M122" s="7"/>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="E123" s="4"/>
+      <c r="K122" s="15"/>
+      <c r="M122" s="16"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="E123" s="14"/>
       <c r="G123" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K123" s="4"/>
-      <c r="M123" s="4"/>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="4">
+      <c r="K123" s="14"/>
+      <c r="M123" s="14"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="14">
         <v>40</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="E124" s="14" t="s">
         <v>107</v>
       </c>
       <c r="G124" s="1" t="s">
@@ -2361,31 +2543,31 @@
       <c r="I124" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K124" s="6"/>
-      <c r="M124" s="7"/>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="E125" s="4"/>
+      <c r="K124" s="15"/>
+      <c r="M124" s="16"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="E125" s="14"/>
       <c r="G125" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K125" s="4"/>
-      <c r="M125" s="4"/>
-    </row>
-    <row r="126" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="127" spans="1:13">
-      <c r="A127" s="4">
+      <c r="K125" s="14"/>
+      <c r="M125" s="14"/>
+    </row>
+    <row r="126" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="14">
         <v>41</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" s="14" t="s">
         <v>110</v>
       </c>
       <c r="G127" s="1" t="s">
@@ -2394,31 +2576,31 @@
       <c r="I127" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K127" s="6"/>
-      <c r="M127" s="7"/>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="A128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="E128" s="4"/>
+      <c r="K127" s="15"/>
+      <c r="M127" s="16"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="E128" s="14"/>
       <c r="G128" s="1" t="s">
         <v>113</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K128" s="4"/>
-      <c r="M128" s="4"/>
-    </row>
-    <row r="129" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="130" spans="1:13">
-      <c r="A130" s="4">
+      <c r="K128" s="14"/>
+      <c r="M128" s="14"/>
+    </row>
+    <row r="129" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="14">
         <v>42</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" s="14" t="s">
         <v>114</v>
       </c>
       <c r="G130" s="1" t="s">
@@ -2427,23 +2609,23 @@
       <c r="I130" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K130" s="6"/>
-      <c r="M130" s="7"/>
-    </row>
-    <row r="131" spans="1:13">
-      <c r="A131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="E131" s="4"/>
+      <c r="K130" s="15"/>
+      <c r="M130" s="16"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="E131" s="14"/>
       <c r="G131" s="1" t="s">
         <v>67</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K131" s="4"/>
-      <c r="M131" s="4"/>
-    </row>
-    <row r="132" spans="1:13" ht="2.25" customHeight="1">
+      <c r="K131" s="14"/>
+      <c r="M131" s="14"/>
+    </row>
+    <row r="132" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
       <c r="E132" s="1"/>
@@ -2452,406 +2634,544 @@
       <c r="K132" s="1"/>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="1:13">
-      <c r="A133" s="4">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="14">
         <v>49</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G133" s="8" t="s">
+      <c r="G133" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H133" s="18"/>
-      <c r="I133" s="8" t="s">
+      <c r="H133" s="4"/>
+      <c r="I133" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="K133" s="6"/>
-      <c r="M133" s="7"/>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="A134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="9"/>
-      <c r="K134" s="4"/>
-      <c r="M134" s="4"/>
-    </row>
-    <row r="135" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="136" spans="1:13">
-      <c r="A136" s="4">
+      <c r="K133" s="15"/>
+      <c r="M133" s="16"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="7"/>
+      <c r="K134" s="14"/>
+      <c r="M134" s="14"/>
+    </row>
+    <row r="135" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="14">
         <v>50</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="E136" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G136" s="8" t="s">
+      <c r="G136" s="6" t="s">
         <v>153</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K136" s="6"/>
-      <c r="M136" s="7"/>
-    </row>
-    <row r="137" spans="1:13">
-      <c r="A137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="G137" s="9"/>
+      <c r="K136" s="15"/>
+      <c r="M136" s="16"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="G137" s="7"/>
       <c r="I137" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K137" s="4"/>
-      <c r="M137" s="4"/>
-    </row>
-    <row r="138" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="139" spans="1:13">
-      <c r="A139" s="4">
+      <c r="K137" s="14"/>
+      <c r="M137" s="14"/>
+    </row>
+    <row r="138" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="14">
         <v>51</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="E139" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G139" s="8" t="s">
+      <c r="G139" s="6" t="s">
         <v>154</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K139" s="6"/>
-      <c r="M139" s="7"/>
-    </row>
-    <row r="140" spans="1:13">
-      <c r="A140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="G140" s="9"/>
+      <c r="K139" s="15"/>
+      <c r="M139" s="16"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="G140" s="7"/>
       <c r="I140" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K140" s="4"/>
-      <c r="M140" s="4"/>
-    </row>
-    <row r="141" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="142" spans="1:13">
-      <c r="A142" s="4">
+      <c r="K140" s="14"/>
+      <c r="M140" s="14"/>
+    </row>
+    <row r="141" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="14">
         <v>52</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="E142" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G142" s="8" t="s">
+      <c r="G142" s="6" t="s">
         <v>155</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K142" s="6"/>
-      <c r="M142" s="7"/>
-    </row>
-    <row r="143" spans="1:13">
-      <c r="A143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="G143" s="9"/>
+      <c r="K142" s="15"/>
+      <c r="M142" s="16"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="G143" s="7"/>
       <c r="I143" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K143" s="4"/>
-      <c r="M143" s="4"/>
-    </row>
-    <row r="144" spans="1:13" ht="2.25" customHeight="1">
+      <c r="K143" s="14"/>
+      <c r="M143" s="14"/>
+    </row>
+    <row r="144" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="C144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="G144" s="19"/>
+      <c r="G144" s="5"/>
       <c r="I144" s="1"/>
       <c r="K144" s="1"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="1:13">
-      <c r="A145" s="14">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="12">
         <v>43</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C145" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E145" s="14" t="s">
+      <c r="E145" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G145" s="8" t="s">
+      <c r="G145" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I145" s="8" t="s">
+      <c r="I145" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="K145" s="12"/>
-      <c r="M145" s="10"/>
-    </row>
-    <row r="146" spans="1:13">
-      <c r="A146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="G146" s="9"/>
-      <c r="I146" s="9"/>
-      <c r="K146" s="13"/>
-      <c r="M146" s="11"/>
-    </row>
-    <row r="147" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="148" spans="1:13">
-      <c r="A148" s="4">
+      <c r="K145" s="10"/>
+      <c r="M145" s="8"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="G146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="K146" s="11"/>
+      <c r="M146" s="9"/>
+    </row>
+    <row r="147" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="14">
         <v>44</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E148" s="4" t="s">
+      <c r="E148" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G148" s="8" t="s">
+      <c r="G148" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I148" s="8" t="s">
+      <c r="I148" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="K148" s="6"/>
-      <c r="M148" s="7"/>
-    </row>
-    <row r="149" spans="1:13">
-      <c r="A149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="G149" s="9"/>
-      <c r="I149" s="9"/>
-      <c r="K149" s="4"/>
-      <c r="M149" s="4"/>
-    </row>
-    <row r="150" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="151" spans="1:13">
-      <c r="A151" s="4">
+      <c r="K148" s="15"/>
+      <c r="M148" s="16"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="G149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="K149" s="14"/>
+      <c r="M149" s="14"/>
+    </row>
+    <row r="150" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="14">
         <v>45</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="E151" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G151" s="8" t="s">
+      <c r="G151" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H151" s="18"/>
-      <c r="I151" s="8" t="s">
+      <c r="H151" s="4"/>
+      <c r="I151" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="K151" s="6"/>
-      <c r="M151" s="7"/>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="18"/>
-      <c r="I152" s="9"/>
-      <c r="K152" s="4"/>
-      <c r="M152" s="4"/>
-    </row>
-    <row r="153" spans="1:13" ht="1.5" customHeight="1"/>
-    <row r="154" spans="1:13">
-      <c r="A154" s="4">
+      <c r="K151" s="15"/>
+      <c r="M151" s="16"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="7"/>
+      <c r="K152" s="14"/>
+      <c r="M152" s="14"/>
+    </row>
+    <row r="153" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" s="14">
         <v>46</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E154" s="4" t="s">
+      <c r="E154" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G154" s="8" t="s">
+      <c r="G154" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H154" s="18"/>
-      <c r="I154" s="8" t="s">
+      <c r="H154" s="4"/>
+      <c r="I154" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K154" s="6"/>
-      <c r="M154" s="7"/>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="9"/>
-      <c r="K155" s="4"/>
-      <c r="M155" s="4"/>
-    </row>
-    <row r="156" spans="1:13" ht="1.5" customHeight="1">
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="18"/>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="4">
+      <c r="K154" s="15"/>
+      <c r="M154" s="16"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="7"/>
+      <c r="K155" s="14"/>
+      <c r="M155" s="14"/>
+    </row>
+    <row r="156" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="14">
         <v>47</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="E157" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G157" s="8" t="s">
+      <c r="G157" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H157" s="18"/>
-      <c r="I157" s="8" t="s">
+      <c r="H157" s="4"/>
+      <c r="I157" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="K157" s="6"/>
-      <c r="M157" s="7"/>
-    </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="18"/>
-      <c r="I158" s="9"/>
-      <c r="K158" s="4"/>
-      <c r="M158" s="4"/>
-    </row>
-    <row r="159" spans="1:13" ht="1.5" customHeight="1">
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160" s="4">
+      <c r="K157" s="15"/>
+      <c r="M157" s="16"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="7"/>
+      <c r="K158" s="14"/>
+      <c r="M158" s="14"/>
+    </row>
+    <row r="159" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" s="14">
         <v>48</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="E160" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G160" s="8" t="s">
+      <c r="G160" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H160" s="18"/>
-      <c r="I160" s="8" t="s">
+      <c r="H160" s="4"/>
+      <c r="I160" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="K160" s="6"/>
-      <c r="M160" s="7"/>
-    </row>
-    <row r="161" spans="1:13">
-      <c r="A161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="18"/>
-      <c r="I161" s="9"/>
-      <c r="K161" s="4"/>
-      <c r="M161" s="4"/>
-    </row>
-    <row r="162" spans="1:13" ht="1.5" customHeight="1">
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="18"/>
-    </row>
-    <row r="163" spans="1:13" ht="1.5" customHeight="1"/>
+      <c r="K160" s="15"/>
+      <c r="M160" s="16"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="E161" s="14"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="7"/>
+      <c r="K161" s="14"/>
+      <c r="M161" s="14"/>
+    </row>
+    <row r="162" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+    </row>
+    <row r="163" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="304">
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="M142:M143"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="I110:I111"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="K130:K131"/>
-    <mergeCell ref="M130:M131"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="M139:M140"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="M124:M125"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="G154:G155"/>
-    <mergeCell ref="I154:I155"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="G160:G161"/>
-    <mergeCell ref="I160:I161"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="K136:K137"/>
-    <mergeCell ref="M136:M137"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="M113:M114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="M157:M158"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="M148:M149"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="M151:M152"/>
     <mergeCell ref="A122:A123"/>
     <mergeCell ref="C122:C123"/>
     <mergeCell ref="E122:E123"/>
@@ -2876,215 +3196,77 @@
     <mergeCell ref="C157:C158"/>
     <mergeCell ref="E157:E158"/>
     <mergeCell ref="K157:K158"/>
-    <mergeCell ref="M157:M158"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="M148:M149"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="M151:M152"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="M113:M114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="I154:I155"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="G160:G161"/>
+    <mergeCell ref="I160:I161"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="M139:M140"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="M124:M125"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="K136:K137"/>
+    <mergeCell ref="M136:M137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="K130:K131"/>
+    <mergeCell ref="M130:M131"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="M142:M143"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3097,7 +3279,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
